--- a/medicine/Psychotrope/Café_au_lait/Café_au_lait.xlsx
+++ b/medicine/Psychotrope/Café_au_lait/Café_au_lait.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Caf%C3%A9_au_lait</t>
+          <t>Café_au_lait</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le café au lait est une boisson chaude réalisée à partir de café et de lait.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Caf%C3%A9_au_lait</t>
+          <t>Café_au_lait</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La première personne documentée buvant du café avec du lait est Jan Nieuhof en 1660, alors qu’il était ambassadeur néerlandais en Chine[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première personne documentée buvant du café avec du lait est Jan Nieuhof en 1660, alors qu’il était ambassadeur néerlandais en Chine.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Caf%C3%A9_au_lait</t>
+          <t>Café_au_lait</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les proportions d'ingrédients, comme la dénomination, varient selon les régions et le mode de préparation.
 En fonction des pays, on trouve différentes dénominations :
@@ -550,9 +566,9 @@
 Belgique francophone : « café au lait » (café chaud additionné « d'un soupçon », « d'un nuage » ou « de beaucoup » de lait : l'équivalent d'une cuillère à soupe) ; « lait russe » (café renversé) ;
 Cuba : cortadito (pour le mélange à 50/50, ou comportant plus de lait que de café) ;
 Espagne : café con leche (en) (café au lait) ; café con nata (café crème) ; cortado (plus de café que de lait) ; con una nube (café noisette) ; café bombón : café avec du lait concentré sucré ; lágrima (café renversé). Le café blanco n'est pas un café au lait, mais un café très léger. En Catalogne, cafè amb llet (café au lait) ; tallat (café noisette) ;
-France : café au lait (café servi avec du lait) ; café crème[2] (café servi avec de la crème[3]) ; café noisette[2] (café ayant atteint la couleur d'une noisette) ; café renversé (café servi avec plus de lait que de café, ou du moins plus clair qu'un café noisette suivant les régions) ;
-Italie : caffelatte (café au lait) ; caffè macchiato (café noisette) ; latte macchiato. Les termes café au lait et renversé sont utilisés en Vallée d'Aoste[4] ;
-Japon : Deux dénominations sont utilisées. La première, カフェオレ (kafe o re?), vient du français et correspond à du café filtre avec du lait dans un ratio 1:1. La seconde, カフェラテ (kafe rate?), vient de l'italien et correspond à un volume d'expresso auquel on ajoute quatre volume de lait. Cette version est plus amer à cause de la nature du café[5].
+France : café au lait (café servi avec du lait) ; café crème (café servi avec de la crème) ; café noisette (café ayant atteint la couleur d'une noisette) ; café renversé (café servi avec plus de lait que de café, ou du moins plus clair qu'un café noisette suivant les régions) ;
+Italie : caffelatte (café au lait) ; caffè macchiato (café noisette) ; latte macchiato. Les termes café au lait et renversé sont utilisés en Vallée d'Aoste ;
+Japon : Deux dénominations sont utilisées. La première, カフェオレ (kafe o re?), vient du français et correspond à du café filtre avec du lait dans un ratio 1:1. La seconde, カフェラテ (kafe rate?), vient de l'italien et correspond à un volume d'expresso auquel on ajoute quatre volume de lait. Cette version est plus amer à cause de la nature du café.
 Maroc : « café cassé » servi dans un petit verre ;
 Mexique : café lechero ;
 Pays anglo-saxons : white coffee (en) (café au lait). Aux États-Unis, la dénomination « café au lait » est réservée pour un café fort ou très fort, mélangé avec du lait chaud ;
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Caf%C3%A9_au_lait</t>
+          <t>Café_au_lait</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,7 +603,9 @@
           <t>Possibilité de confusion</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Aux États-Unis (et particulièrement dans l'État de Rhode Island dont c'est la boisson officielle), le coffee milk est composé de sirop de café et de lait.
 </t>
